--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1254,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1270,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1254,14 +1319,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1270,14 +1357,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -1286,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1596,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1479,14 +1612,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -1495,14 +1628,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -1511,13 +1644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,205 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -686,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -726,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -764,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>87.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -896,26 +836,102 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +966,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -990,22 +1006,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1028,22 +1044,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1082,7 +1098,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1122,22 +1138,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0575</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1160,22 +1176,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0575</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1193,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,7 +1230,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1254,26 +1270,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1292,102 +1308,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1362,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1462,26 +1402,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1500,26 +1440,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.33</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1533,144 +1473,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -600,6 +617,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016471</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -932,138 +1153,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1187,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1138,22 +1227,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1176,22 +1265,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1270,26 +1359,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1308,26 +1397,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1402,22 +1491,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1440,22 +1529,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1468,6 +1557,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
+++ b/数据整理/stocks/其他/ILMN-Illumina公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -616,7 +633,457 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001093</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富纳斯达克生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016470</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016471</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发纳斯达克生物科技指数美元C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -820,7 +1287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -952,7 +1419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1153,138 +1620,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001092</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（人民币）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001093</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发纳斯达克生物科技指数(QDII)（美元）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1654,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1359,22 +1694,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1397,22 +1732,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1491,26 +1826,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1529,26 +1864,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.14</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1623,22 +1958,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1661,22 +1996,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>85.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1694,53 +2029,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1755,30 +2090,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0407</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1793,105 +2128,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0407</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>